--- a/src/test/resources/VtigerCRM_TestData.xlsx
+++ b/src/test/resources/VtigerCRM_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sncsr\git\VtigerCRM_QKP_Freshers\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK QJSPIDERS\eclipse-workspace\VtigerCRM_A2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100C34EE-33E4-4419-93A8-F879EFA83AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906EA8AB-4799-4557-91DF-BBEBD49930F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrganizationsTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="42">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -161,7 +161,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -872,17 +871,17 @@
       <selection activeCell="A4" sqref="A4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="29.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="28.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="16.88671875" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -899,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -916,7 +915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -927,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -944,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -972,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -981,7 +980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1008,19 +1007,19 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625"/>
-    <col min="2" max="2" customWidth="true" width="43.6640625"/>
-    <col min="3" max="3" customWidth="true" width="25.6640625"/>
-    <col min="4" max="4" customWidth="true" width="20.109375"/>
-    <col min="5" max="5" customWidth="true" width="11.6640625"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -1067,7 +1066,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -1078,7 +1077,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -1091,7 +1090,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1121,11 +1120,11 @@
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
@@ -1136,7 +1135,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -1149,7 +1148,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1179,11 +1178,11 @@
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
@@ -1194,7 +1193,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -1207,7 +1206,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
@@ -1218,7 +1217,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
@@ -1227,7 +1226,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1257,11 +1256,11 @@
       <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
@@ -1272,7 +1271,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
@@ -1285,7 +1284,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
@@ -1296,7 +1295,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
@@ -1324,16 +1323,16 @@
       <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1363,11 +1362,11 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -1380,7 +1379,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1410,11 +1409,11 @@
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
@@ -1425,7 +1424,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1455,16 +1454,16 @@
       <selection activeCell="A5" sqref="A5:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1495,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -1507,7 +1506,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1520,7 +1519,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1550,11 +1549,11 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
@@ -1565,7 +1564,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -1578,7 +1577,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
@@ -1589,7 +1588,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
@@ -1615,16 +1614,16 @@
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1654,11 +1653,11 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -1669,7 +1668,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1682,7 +1681,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
@@ -1693,7 +1692,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">

--- a/src/test/resources/VtigerCRM_TestData.xlsx
+++ b/src/test/resources/VtigerCRM_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK QJSPIDERS\eclipse-workspace\VtigerCRM_A2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906EA8AB-4799-4557-91DF-BBEBD49930F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D401ED3-B42B-4BCD-9E37-D94F84B6B30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="43">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>2025-November-26</t>
+  </si>
+  <si>
+    <t>Infosys</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8D249-F0EF-414A-8516-32DB487E47E6}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>

--- a/src/test/resources/VtigerCRM_TestData.xlsx
+++ b/src/test/resources/VtigerCRM_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK QJSPIDERS\eclipse-workspace\VtigerCRM_A2\src\test\resources\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="43">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -164,6 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -876,12 +877,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,11 +1016,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.7109375"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375"/>
+    <col min="4" max="4" customWidth="true" width="20.140625"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,7 +1053,7 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -1123,7 +1124,7 @@
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -1181,7 +1182,7 @@
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -1259,7 +1260,7 @@
       <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -1328,11 +1329,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,7 +1366,7 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -1412,7 +1413,7 @@
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -1459,11 +1460,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,7 +1553,7 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -1619,11 +1620,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,7 +1657,7 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/VtigerCRM_TestData.xlsx
+++ b/src/test/resources/VtigerCRM_TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="43">
   <si>
     <t>TestCase Name</t>
   </si>
